--- a/登记表.xlsx
+++ b/登记表.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,333 +424,189 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>开始号</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>领取数值</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>结束号</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>备注</t>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>领取人</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>退回时间</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>段号</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2021-01-11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000000011</t>
+          <t>000000123</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000000138</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>城北</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>000000123-000000138</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>000000012</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2021-01-11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000000022</t>
+          <t>000000139</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000000159</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>城南</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>000000139-000000159</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>000000023</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2021-01-11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000000038</t>
+          <t>000000160</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000000170</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>000000160-000000170</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>000000039</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2021-01-11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000000049</t>
+          <t>000000171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000000179</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>000000171-000000179</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>000000050</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000000120</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>000000121</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>000000131</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>000000132</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>000000152</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>000000153</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>000000168</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>000000169</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>000000179</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
           <t>000000180</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>000001180</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>000001181</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>000002181</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>000002182</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>000002192</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>000002193</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>000002203</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>000002204</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>000002214</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>000002215</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>000002230</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>000002231</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>000002248</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>000002249</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>789654</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>000009999</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>000010009</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>000010010</t>
         </is>
       </c>
     </row>
